--- a/src/main/resources/Properties.xlsx
+++ b/src/main/resources/Properties.xlsx
@@ -4046,7 +4046,7 @@
   <dimension ref="A1:E902"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/Properties.xlsx
+++ b/src/main/resources/Properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1126">
   <si>
     <t>Property</t>
   </si>
@@ -3547,6 +3547,12 @@
   </si>
   <si>
     <t>CTN_services</t>
+  </si>
+  <si>
+    <t>баланс 29</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
@@ -4045,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,6 +4424,9 @@
       <c r="C53" s="2" t="s">
         <v>1085</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -4501,7 +4510,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1111</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1112</v>
       </c>
@@ -4523,7 +4532,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1113</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1115</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1123</v>
       </c>
@@ -4553,14 +4562,19 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -4568,7 +4582,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -4576,7 +4590,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>52</v>
       </c>

--- a/src/main/resources/Properties.xlsx
+++ b/src/main/resources/Properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1131">
   <si>
     <t>Property</t>
   </si>
@@ -3552,14 +3552,29 @@
     <t>баланс 29</t>
   </si>
   <si>
-    <t>Б</t>
+    <t>red</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>красный цвет шрифта</t>
+  </si>
+  <si>
+    <t>черный цвет шрифта</t>
+  </si>
+  <si>
+    <t>rgba(40, 40, 40, 1)</t>
+  </si>
+  <si>
+    <t>rgba(179, 23, 54, 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3665,6 +3680,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3705,7 +3727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3741,6 +3763,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4052,7 +4077,7 @@
   <dimension ref="A1:E902"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,11 +4100,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1084</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4408,11 +4433,11 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>1090</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -4510,7 +4535,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1111</v>
       </c>
@@ -4521,7 +4546,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>1112</v>
       </c>
@@ -4532,7 +4557,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1113</v>
       </c>
@@ -4540,7 +4565,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1115</v>
       </c>
@@ -4551,7 +4576,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>1123</v>
       </c>
@@ -4562,19 +4587,36 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="2" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="B73" s="23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -4582,7 +4624,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -4590,7 +4632,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>52</v>
       </c>
@@ -5067,11 +5109,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="24"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -5890,11 +5932,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="23" t="s">
+      <c r="A256" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B256" s="23"/>
-      <c r="C256" s="23"/>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
@@ -6674,11 +6716,11 @@
       <c r="B363" s="6"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="23" t="s">
+      <c r="A364" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B364" s="23"/>
-      <c r="C364" s="23"/>
+      <c r="B364" s="24"/>
+      <c r="C364" s="24"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
@@ -7138,11 +7180,11 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="23" t="s">
+      <c r="A441" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B441" s="23"/>
-      <c r="C441" s="23"/>
+      <c r="B441" s="24"/>
+      <c r="C441" s="24"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
@@ -7343,11 +7385,11 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="23" t="s">
+      <c r="A473" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B473" s="23"/>
-      <c r="C473" s="23"/>
+      <c r="B473" s="24"/>
+      <c r="C473" s="24"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
@@ -7522,11 +7564,11 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="23" t="s">
+      <c r="A502" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B502" s="23"/>
-      <c r="C502" s="23"/>
+      <c r="B502" s="24"/>
+      <c r="C502" s="24"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
@@ -7575,11 +7617,11 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="23" t="s">
+      <c r="A509" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B509" s="23"/>
-      <c r="C509" s="23"/>
+      <c r="B509" s="24"/>
+      <c r="C509" s="24"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
@@ -7606,11 +7648,11 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" s="23" t="s">
+      <c r="A516" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B516" s="23"/>
-      <c r="C516" s="23"/>
+      <c r="B516" s="24"/>
+      <c r="C516" s="24"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
@@ -8347,11 +8389,11 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="23" t="s">
+      <c r="A617" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B617" s="23"/>
-      <c r="C617" s="23"/>
+      <c r="B617" s="24"/>
+      <c r="C617" s="24"/>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
@@ -8841,11 +8883,11 @@
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A682" s="23" t="s">
+      <c r="A682" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="B682" s="23"/>
-      <c r="C682" s="23"/>
+      <c r="B682" s="24"/>
+      <c r="C682" s="24"/>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
@@ -9625,11 +9667,11 @@
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A798" s="23" t="s">
+      <c r="A798" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="B798" s="23"/>
-      <c r="C798" s="23"/>
+      <c r="B798" s="24"/>
+      <c r="C798" s="24"/>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">

--- a/src/main/resources/Properties.xlsx
+++ b/src/main/resources/Properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1133">
   <si>
     <t>Property</t>
   </si>
@@ -3569,12 +3569,18 @@
   <si>
     <t>rgba(179, 23, 54, 1)</t>
   </si>
+  <si>
+    <t>автооплата</t>
+  </si>
+  <si>
+    <t>таргеты тарифов, дов платеж</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3682,7 +3688,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF6A8759"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -3727,7 +3739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3764,6 +3776,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4077,7 +4092,7 @@
   <dimension ref="A1:E902"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4100,11 +4115,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4413,7 +4428,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>674</v>
       </c>
@@ -4424,7 +4439,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>824</v>
       </c>
@@ -4432,14 +4447,14 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>1090</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1091</v>
       </c>
@@ -4452,8 +4467,11 @@
       <c r="D53" s="2" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1121</v>
       </c>
@@ -4461,7 +4479,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -4469,7 +4487,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>1092</v>
       </c>
@@ -4483,7 +4501,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>1096</v>
       </c>
@@ -4493,8 +4511,11 @@
       <c r="C58" s="2" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>1098</v>
       </c>
@@ -4502,7 +4523,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1100</v>
       </c>
@@ -4513,7 +4534,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1105</v>
       </c>
@@ -4524,7 +4545,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>1107</v>
       </c>
@@ -4602,7 +4623,7 @@
       <c r="A74" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="24" t="s">
         <v>1129</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -4610,11 +4631,11 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -5109,11 +5130,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -5932,11 +5953,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="24" t="s">
+      <c r="A256" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B256" s="24"/>
-      <c r="C256" s="24"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="25"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
@@ -6716,11 +6737,11 @@
       <c r="B363" s="6"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="24" t="s">
+      <c r="A364" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B364" s="24"/>
-      <c r="C364" s="24"/>
+      <c r="B364" s="25"/>
+      <c r="C364" s="25"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
@@ -7180,11 +7201,11 @@
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="24" t="s">
+      <c r="A441" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="B441" s="24"/>
-      <c r="C441" s="24"/>
+      <c r="B441" s="25"/>
+      <c r="C441" s="25"/>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
@@ -7385,11 +7406,11 @@
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473" s="24" t="s">
+      <c r="A473" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B473" s="24"/>
-      <c r="C473" s="24"/>
+      <c r="B473" s="25"/>
+      <c r="C473" s="25"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
@@ -7564,11 +7585,11 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="24" t="s">
+      <c r="A502" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B502" s="24"/>
-      <c r="C502" s="24"/>
+      <c r="B502" s="25"/>
+      <c r="C502" s="25"/>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
@@ -7617,11 +7638,11 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="24" t="s">
+      <c r="A509" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B509" s="24"/>
-      <c r="C509" s="24"/>
+      <c r="B509" s="25"/>
+      <c r="C509" s="25"/>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
@@ -7648,11 +7669,11 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" s="24" t="s">
+      <c r="A516" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B516" s="24"/>
-      <c r="C516" s="24"/>
+      <c r="B516" s="25"/>
+      <c r="C516" s="25"/>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
@@ -8389,11 +8410,11 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="24" t="s">
+      <c r="A617" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="B617" s="24"/>
-      <c r="C617" s="24"/>
+      <c r="B617" s="25"/>
+      <c r="C617" s="25"/>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
@@ -8883,11 +8904,11 @@
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A682" s="24" t="s">
+      <c r="A682" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="B682" s="24"/>
-      <c r="C682" s="24"/>
+      <c r="B682" s="25"/>
+      <c r="C682" s="25"/>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
@@ -9667,11 +9688,11 @@
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A798" s="24" t="s">
+      <c r="A798" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B798" s="24"/>
-      <c r="C798" s="24"/>
+      <c r="B798" s="25"/>
+      <c r="C798" s="25"/>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="2" t="s">

--- a/src/main/resources/Properties.xlsx
+++ b/src/main/resources/Properties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="1134">
   <si>
     <t>Property</t>
   </si>
@@ -3513,9 +3513,6 @@
     <t>CTN_Has_HappyTime_1</t>
   </si>
   <si>
-    <t>CDP</t>
-  </si>
-  <si>
     <t>CPA</t>
   </si>
   <si>
@@ -3574,13 +3571,19 @@
   </si>
   <si>
     <t>таргеты тарифов, дов платеж</t>
+  </si>
+  <si>
+    <t>Login_Subs</t>
+  </si>
+  <si>
+    <t>9683521155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3699,6 +3702,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3739,7 +3749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3783,6 +3793,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4091,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,18 +4478,18 @@
         <v>1085</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4512,7 +4525,7 @@
         <v>1097</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4568,66 +4581,66 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>1112</v>
+      <c r="A67" s="26" t="s">
+        <v>1132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1119</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>1114</v>
+      <c r="C68" s="2" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
